--- a/Desarrollo/SIC/Documentos/SIC_TDD.xlsx
+++ b/Desarrollo/SIC/Documentos/SIC_TDD.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASSI\Desktop\LENIS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\fire-fox\Tecnalogia\Desarrollo\SIC\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -119,9 +119,6 @@
   </si>
   <si>
     <t>Descartado</t>
-  </si>
-  <si>
-    <t>Sistema de Gestión de Póliza</t>
   </si>
   <si>
     <t>Validar que el boton Grabar este deshabilitado mientras hay campos vacios.</t>
@@ -200,16 +197,18 @@
       <t>Nota: El botón "Generar cotización" está habilitado.</t>
     </r>
   </si>
+  <si>
+    <t>Sistema integral de comercio (SIC)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="00000"/>
-    <numFmt numFmtId="165" formatCode="d\-mmm\-yy"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -302,6 +301,13 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -545,7 +551,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -587,7 +593,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -678,6 +684,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1109,7 +1118,7 @@
         <v>18</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>19</v>
@@ -1139,7 +1148,7 @@
         <v>27</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D7" s="13">
         <v>1</v>
@@ -2237,7 +2246,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3:M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2292,8 +2301,8 @@
     </row>
     <row r="3" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
-      <c r="B3" s="43" t="s">
-        <v>33</v>
+      <c r="B3" s="47" t="s">
+        <v>43</v>
       </c>
       <c r="C3" s="44"/>
       <c r="D3" s="44"/>
@@ -2373,25 +2382,25 @@
         <v>26</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D5" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="34" t="s">
+      <c r="H5" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5" s="11" t="s">
+      <c r="I5" s="11" t="s">
         <v>39</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>40</v>
       </c>
       <c r="J5" s="14">
         <v>2</v>
@@ -2432,7 +2441,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
